--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H2">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N2">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P2">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q2">
-        <v>56.86314428935243</v>
+        <v>0.2063612367768889</v>
       </c>
       <c r="R2">
-        <v>511.7682986041719</v>
+        <v>1.857251130992</v>
       </c>
       <c r="S2">
-        <v>0.06802580777787268</v>
+        <v>0.000477453810323402</v>
       </c>
       <c r="T2">
-        <v>0.06802580777787268</v>
+        <v>0.000477453810323402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H3">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P3">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q3">
-        <v>120.5816482440209</v>
+        <v>6.150174647540444</v>
       </c>
       <c r="R3">
-        <v>1085.234834196188</v>
+        <v>55.351571827864</v>
       </c>
       <c r="S3">
-        <v>0.144252733954474</v>
+        <v>0.01422953441007595</v>
       </c>
       <c r="T3">
-        <v>0.144252733954474</v>
+        <v>0.01422953441007595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H4">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P4">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q4">
-        <v>164.8458229093507</v>
+        <v>8.407834986285334</v>
       </c>
       <c r="R4">
-        <v>1483.612406184156</v>
+        <v>75.67051487656799</v>
       </c>
       <c r="S4">
-        <v>0.1972062994820442</v>
+        <v>0.01945303737015557</v>
       </c>
       <c r="T4">
-        <v>0.1972062994820442</v>
+        <v>0.01945303737015557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N5">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P5">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q5">
-        <v>70.56686596727644</v>
+        <v>5.021018812561779</v>
       </c>
       <c r="R5">
-        <v>635.101793705488</v>
+        <v>45.18916931305601</v>
       </c>
       <c r="S5">
-        <v>0.08441967323069254</v>
+        <v>0.01161702944412469</v>
       </c>
       <c r="T5">
-        <v>0.08441967323069254</v>
+        <v>0.01161702944412469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P6">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q6">
         <v>149.6411975822169</v>
@@ -818,10 +818,10 @@
         <v>1346.770778239952</v>
       </c>
       <c r="S6">
-        <v>0.1790168916896255</v>
+        <v>0.3462218054267259</v>
       </c>
       <c r="T6">
-        <v>0.1790168916896255</v>
+        <v>0.3462218054267259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P7">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q7">
         <v>204.5728078510027</v>
       </c>
       <c r="R7">
-        <v>1841.155270659025</v>
+        <v>1841.155270659024</v>
       </c>
       <c r="S7">
-        <v>0.2447319907713544</v>
+        <v>0.4733159585713304</v>
       </c>
       <c r="T7">
-        <v>0.2447319907713544</v>
+        <v>0.4733159585713302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.564139666666666</v>
+        <v>0.1112926666666667</v>
       </c>
       <c r="N8">
-        <v>4.692418999999999</v>
+        <v>0.333878</v>
       </c>
       <c r="O8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="P8">
-        <v>0.166125338305886</v>
+        <v>0.01397697460904174</v>
       </c>
       <c r="Q8">
-        <v>11.43506743639622</v>
+        <v>0.8136352370768888</v>
       </c>
       <c r="R8">
-        <v>102.915606927566</v>
+        <v>7.322717133692</v>
       </c>
       <c r="S8">
-        <v>0.01367985729732075</v>
+        <v>0.001882491354593643</v>
       </c>
       <c r="T8">
-        <v>0.01367985729732075</v>
+        <v>0.001882491354593643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="P9">
-        <v>0.3522785691569683</v>
+        <v>0.4165551449121381</v>
       </c>
       <c r="Q9">
         <v>24.24873433389044</v>
@@ -1004,10 +1004,10 @@
         <v>218.238609005014</v>
       </c>
       <c r="S9">
-        <v>0.02900894351286879</v>
+        <v>0.0561038050753363</v>
       </c>
       <c r="T9">
-        <v>0.02900894351286879</v>
+        <v>0.0561038050753363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.4815960925371457</v>
+        <v>0.5694678804788202</v>
       </c>
       <c r="P10">
-        <v>0.4815960925371458</v>
+        <v>0.5694678804788201</v>
       </c>
       <c r="Q10">
         <v>33.15017354623533</v>
@@ -1066,10 +1066,10 @@
         <v>298.351561916118</v>
       </c>
       <c r="S10">
-        <v>0.03965780228374714</v>
+        <v>0.0766988845373343</v>
       </c>
       <c r="T10">
-        <v>0.03965780228374715</v>
+        <v>0.07669888453733428</v>
       </c>
     </row>
   </sheetData>
